--- a/biology/Histoire de la zoologie et de la botanique/Murray_Ian_Hill_Brooker/Murray_Ian_Hill_Brooker.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Murray_Ian_Hill_Brooker/Murray_Ian_Hill_Brooker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Murray Ian Hill Brooker, plus connu sous le nom de Ian Brooker, est un botaniste australien, né le 2 juin 1934 à Adélaïde (Australie) et mort le 25 juin 2016[1] à Canberra.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Murray Ian Hill Brooker, plus connu sous le nom de Ian Brooker, est un botaniste australien, né le 2 juin 1934 à Adélaïde (Australie) et mort le 25 juin 2016 à Canberra.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Murray Ian Hill Brooker obtient son Bachelor of Sciences à l’université d’Adélaïde et son Master of Sciences à l’Université nationale australienne de Canberra.
 Il travaille pour le département de conservation des sols du ministère de l’agriculture dans le sud de l’Australie de 1957 à 1963 avant de rejoindre le département de botanique de l’Université nationale australienne jusqu’en 1969. Il passe ensuite un an au sein du Western Australian Herbarium.
@@ -544,7 +558,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Field Guide to Eucalypts, Melbourne, 1983-1994, 3 volumes : South-Eastern Australia, South-western and Southern Australia, Northern Australia  (ISBN 0909605610)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Ian Brooker » (voir la liste des auteurs).</t>
         </is>
